--- a/Documentation/Alimentation de la banque IPPE v2.xlsx
+++ b/Documentation/Alimentation de la banque IPPE v2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevasseur\Desktop\4D1\api\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlevasseur\Desktop\4D1\backend\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2133B9C9-2EE8-4184-BF25-831E3B3330D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{056C8DB3-F79E-4016-9E30-77239F70F086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sélection personnes" sheetId="16" r:id="rId1"/>
@@ -2780,10 +2780,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
@@ -2804,8 +2804,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="1630680"/>
-          <a:ext cx="2095500" cy="525780"/>
+          <a:off x="5775960" y="1668780"/>
+          <a:ext cx="2103120" cy="487680"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -4564,8 +4564,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7DF8B28-673A-403D-B713-A2571F913E17}">
   <dimension ref="B2:R69"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5392,8 +5392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3D217C-EDEC-482E-8461-33BB34AB2A00}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5527,12 +5527,12 @@
       <c r="E8" s="19"/>
       <c r="F8" s="16"/>
       <c r="G8" s="133" t="s">
-        <v>21</v>
+        <v>127</v>
       </c>
       <c r="H8" s="134"/>
       <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="8"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="135"/>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
       <c r="O8" s="1" t="s">
@@ -5781,7 +5781,7 @@
   <mergeCells count="3">
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B4:M4"/>
-    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G8:K8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
